--- a/result/factor_allocating/evaluation.xlsx
+++ b/result/factor_allocating/evaluation.xlsx
@@ -16,12 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <t>FactorAllocating_mode_s</t>
+  </si>
+  <si>
     <t>FactorAllocating_mode_t</t>
   </si>
   <si>
-    <t>FactorAllocating_mode_s</t>
-  </si>
-  <si>
     <t>中债-国债总财富(总值)指数</t>
   </si>
   <si>
@@ -70,16 +70,16 @@
     <t>sortino比率</t>
   </si>
   <si>
+    <t>20101015-20101117</t>
+  </si>
+  <si>
+    <t>20101015-20101231</t>
+  </si>
+  <si>
     <t>20101109-20101117</t>
   </si>
   <si>
     <t>20100621-20100812</t>
-  </si>
-  <si>
-    <t>20101015-20101117</t>
-  </si>
-  <si>
-    <t>20101015-20101231</t>
   </si>
   <si>
     <t>20100831-20101126</t>
@@ -510,10 +510,10 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>11.38057957500731</v>
+        <v>6.974557684837124</v>
       </c>
       <c r="C2">
-        <v>6.971406486243037</v>
+        <v>11.38962394024785</v>
       </c>
       <c r="D2">
         <v>1.750483676714309</v>
@@ -536,10 +536,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.90521156906654</v>
+        <v>6.688737237216902</v>
       </c>
       <c r="C3">
-        <v>6.685719169857163</v>
+        <v>10.91385994777569</v>
       </c>
       <c r="D3">
         <v>1.680439700543412</v>
@@ -565,10 +565,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>11.38057957500731</v>
+        <v>6.974557684837124</v>
       </c>
       <c r="C4">
-        <v>6.971406486243037</v>
+        <v>11.38962394024785</v>
       </c>
       <c r="D4">
         <v>1.750483676714309</v>
@@ -594,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.285218454350321</v>
+        <v>4.358187023656066</v>
       </c>
       <c r="C5">
-        <v>4.357978433870882</v>
+        <v>5.288764152853257</v>
       </c>
       <c r="D5">
         <v>2.182357181509085</v>
@@ -623,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.237358719648921</v>
+        <v>2.651344128638813</v>
       </c>
       <c r="C6">
-        <v>2.651593454800683</v>
+        <v>2.237884059161665</v>
       </c>
       <c r="D6">
         <v>4.218194201278481</v>
@@ -681,10 +681,10 @@
         <v>13</v>
       </c>
       <c r="B8">
+        <v>77</v>
+      </c>
+      <c r="C8">
         <v>52</v>
-      </c>
-      <c r="C8">
-        <v>77</v>
       </c>
       <c r="D8">
         <v>122</v>
@@ -739,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1.869438835208624</v>
+        <v>1.25612600893932</v>
       </c>
       <c r="C10">
-        <v>1.255463059985198</v>
+        <v>1.869895624925922</v>
       </c>
       <c r="D10">
         <v>0.114771404835127</v>
@@ -768,10 +768,10 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>4.415982957914713</v>
+        <v>2.064745632655526</v>
       </c>
       <c r="C11">
-        <v>2.063363122286056</v>
+        <v>4.418987659792556</v>
       </c>
       <c r="D11">
         <v>0.05938032407469185</v>
@@ -797,10 +797,10 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>34.31353838080727</v>
+        <v>19.74772241011072</v>
       </c>
       <c r="C12">
-        <v>19.73642005036113</v>
+        <v>34.34359189808657</v>
       </c>
       <c r="D12">
         <v>1.452927787460295</v>
